--- a/biology/Zoologie/Coelomata/Coelomata.xlsx
+++ b/biology/Zoologie/Coelomata/Coelomata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cœlomés ou cœlomates sont des animaux triploblastiques qui possèdent un cœlome, c’est-à-dire une cavité interne secondaire limitée par un troisième tissu qui se différencie lors du développement embryonnaire (gastrulation) : le mésoderme. C'est dans cette cavité que baignent la plupart des organes.
 Ce type d'organisation est majoritaire. On le trouve chez les vers annélides. Chez les vers plats (plathelminthes) ou ronds (némathelminthes) cette structure n'existe pas. Entre ectoderme et endoderme n'existe qu'une cavité primaire dans le mésenchyme.
